--- a/projet/Optimisation/src/data/recipes.xlsx
+++ b/projet/Optimisation/src/data/recipes.xlsx
@@ -9,13 +9,16 @@
   <sheets>
     <sheet name="GS 400-15" sheetId="1" r:id="rId1"/>
     <sheet name="GS 450-10" sheetId="2" r:id="rId2"/>
+    <sheet name="GS 500-7" sheetId="3" r:id="rId3"/>
+    <sheet name="GS 600-3" sheetId="4" r:id="rId4"/>
+    <sheet name="GL 250" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="43">
   <si>
     <t>Code Article</t>
   </si>
@@ -107,6 +110,9 @@
     <t>Frites Mn</t>
   </si>
   <si>
+    <t>ferro silicum 75 en vrac</t>
+  </si>
+  <si>
     <t>FDN1089</t>
   </si>
   <si>
@@ -116,22 +122,31 @@
     <t>Résultats</t>
   </si>
   <si>
+    <t>FDN1207</t>
+  </si>
+  <si>
+    <t>E8C</t>
+  </si>
+  <si>
+    <t>FDN1204</t>
+  </si>
+  <si>
+    <t>FRITE HAUT SILICIUM</t>
+  </si>
+  <si>
     <t>FDN0184</t>
   </si>
   <si>
     <t>Disque</t>
   </si>
   <si>
-    <t>FDN1207</t>
-  </si>
-  <si>
-    <t>E8C</t>
-  </si>
-  <si>
-    <t>FDN1204</t>
-  </si>
-  <si>
-    <t>FRITE HAUT SILICIUM</t>
+    <t>FDN1212</t>
+  </si>
+  <si>
+    <t>CARBONE 98-95 2-10MM</t>
+  </si>
+  <si>
+    <t>Retour Jaune</t>
   </si>
 </sst>
 </file>
@@ -479,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,13 +734,13 @@
         <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>500.9</v>
+        <v>507</v>
       </c>
       <c r="D4" s="2">
         <v>0.15606191608816389</v>
       </c>
       <c r="E4" s="1">
-        <v>78.171413768561322</v>
+        <v>79.123391456699125</v>
       </c>
       <c r="H4">
         <v>0.1</v>
@@ -783,148 +798,219 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="4">
+        <v>92655248</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1">
+        <v>1520</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8.0598066829342379E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>12.25090615806004</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>75</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="1">
-        <v>991</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>954</v>
+      </c>
+      <c r="D6" s="2">
         <v>2.2380306725172071E-3</v>
       </c>
-      <c r="E5" s="1">
-        <v>2.2178883964645522</v>
-      </c>
-      <c r="H5">
+      <c r="E6" s="1">
+        <v>2.1350812615814161</v>
+      </c>
+      <c r="H6">
         <v>90</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="D6" s="2"/>
-      <c r="E6" s="1"/>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.99194019331706595</v>
-      </c>
-      <c r="E7" s="1">
-        <v>522.2186328399099</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>535.3387095512245</v>
+      </c>
+      <c r="F8">
         <v>0.10703975183883969</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0.72691939387955729</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>3.5500000000000012</v>
       </c>
-      <c r="I7">
-        <v>1.2955144987799321</v>
-      </c>
-      <c r="J7">
+      <c r="I8">
+        <v>1.9</v>
+      </c>
+      <c r="J8">
         <v>0.15</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>2.4604878568319659E-2</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>3.1683145999392558E-2</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>2.4650720069639542E-2</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>6.0278996539944087E-3</v>
       </c>
-      <c r="O7">
+      <c r="O8">
         <v>7.0415436419828574E-3</v>
       </c>
-      <c r="P7">
+      <c r="P8">
         <v>7.4836402465563844E-3</v>
       </c>
-      <c r="Q7">
+      <c r="Q8">
         <v>6.0433541522863024E-3</v>
       </c>
-      <c r="R7">
+      <c r="R8">
         <v>1.212976887972469E-2</v>
       </c>
-      <c r="S7">
+      <c r="S8">
         <v>1.1207334948318369E-2</v>
       </c>
-      <c r="T7">
+      <c r="T8">
         <v>1.9590622902313701E-2</v>
       </c>
-      <c r="U7">
+      <c r="U8">
         <v>2.7303250649582519E-3</v>
       </c>
-      <c r="V7">
+      <c r="V8">
         <v>9.2882284603847242E-3</v>
       </c>
-      <c r="W7">
+      <c r="W8">
         <v>1.3018259948208771E-3</v>
       </c>
-      <c r="X7">
+      <c r="X8">
         <v>2.2466848184018672E-3</v>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
@@ -934,6 +1020,1202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1">
+        <v>453</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.29757673487195552</v>
+      </c>
+      <c r="E2" s="1">
+        <v>134.80226089699579</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>0.02</v>
+      </c>
+      <c r="J2">
+        <v>0.45</v>
+      </c>
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+      <c r="L2">
+        <v>0.04</v>
+      </c>
+      <c r="M2">
+        <v>0.01</v>
+      </c>
+      <c r="N2">
+        <v>0.02</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.03</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1">
+        <v>530</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.26902734881502999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>142.58449487196589</v>
+      </c>
+      <c r="H3">
+        <v>4.25</v>
+      </c>
+      <c r="I3">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="J3">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K3">
+        <v>1E-3</v>
+      </c>
+      <c r="L3">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M3">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N3">
+        <v>2E-3</v>
+      </c>
+      <c r="O3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="P3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="S3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="T3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="U3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="V3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="W3">
+        <v>1E-3</v>
+      </c>
+      <c r="X3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.25398228708939607</v>
+      </c>
+      <c r="E4" s="1">
+        <v>126.99114354469801</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>0.125</v>
+      </c>
+      <c r="L4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.01</v>
+      </c>
+      <c r="N4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T4">
+        <v>1E-3</v>
+      </c>
+      <c r="U4">
+        <v>2E-3</v>
+      </c>
+      <c r="V4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X4">
+        <v>2E-3</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
+        <v>430</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.15060019330942101</v>
+      </c>
+      <c r="E5" s="1">
+        <v>64.758083123051009</v>
+      </c>
+      <c r="H5">
+        <v>3.5</v>
+      </c>
+      <c r="I5">
+        <v>1.9</v>
+      </c>
+      <c r="J5">
+        <v>0.45</v>
+      </c>
+      <c r="K5">
+        <v>0.2</v>
+      </c>
+      <c r="L5">
+        <v>0.16</v>
+      </c>
+      <c r="M5">
+        <v>0.04</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.16</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>856</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2.02708576528557E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17.351854150844481</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>92655248</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1520</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8.5425782613413829E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>12.984718957238901</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="E9" s="1">
+        <v>499.47255554479409</v>
+      </c>
+      <c r="F9">
+        <v>0.17031802691399531</v>
+      </c>
+      <c r="G9">
+        <v>1.175848005245359</v>
+      </c>
+      <c r="H9">
+        <v>3.5499999999999989</v>
+      </c>
+      <c r="I9">
+        <v>1.899999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.24999999999999989</v>
+      </c>
+      <c r="K9">
+        <v>6.5112619245593278E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.05</v>
+      </c>
+      <c r="M9">
+        <v>1.8803336369996159E-2</v>
+      </c>
+      <c r="N9">
+        <v>9.7913591272313187E-3</v>
+      </c>
+      <c r="O9">
+        <v>2.1371737287946059E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="Q9">
+        <v>2.584958056070862E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.8877746427822011E-2</v>
+      </c>
+      <c r="S9">
+        <v>3.2180112693437513E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.3300916823495159E-3</v>
+      </c>
+      <c r="U9">
+        <v>1.8531013182539421E-3</v>
+      </c>
+      <c r="V9">
+        <v>3.9752299853229138E-3</v>
+      </c>
+      <c r="W9">
+        <v>1.53893878426201E-3</v>
+      </c>
+      <c r="X9">
+        <v>1.584073969438912E-3</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>507</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.59307629697608655</v>
+      </c>
+      <c r="E2" s="1">
+        <v>300.68968256687589</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.35</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>1E-3</v>
+      </c>
+      <c r="U2">
+        <v>2E-3</v>
+      </c>
+      <c r="V2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X2">
+        <v>2E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1">
+        <v>500</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.18021668232624191</v>
+      </c>
+      <c r="E3" s="1">
+        <v>90.10834116312094</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.15</v>
+      </c>
+      <c r="K3">
+        <v>0.125</v>
+      </c>
+      <c r="L3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.01</v>
+      </c>
+      <c r="N3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O3">
+        <v>1E-3</v>
+      </c>
+      <c r="P3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R3">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S3">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T3">
+        <v>1E-3</v>
+      </c>
+      <c r="U3">
+        <v>2E-3</v>
+      </c>
+      <c r="V3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X3">
+        <v>2E-3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>430</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.11832033755639219</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50.877745149248639</v>
+      </c>
+      <c r="H4">
+        <v>3.5</v>
+      </c>
+      <c r="I4">
+        <v>1.9</v>
+      </c>
+      <c r="J4">
+        <v>0.45</v>
+      </c>
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+      <c r="L4">
+        <v>0.16</v>
+      </c>
+      <c r="M4">
+        <v>0.04</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.16</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1">
+        <v>510</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6.4252451181377956E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>32.768750102502757</v>
+      </c>
+      <c r="H5">
+        <v>3.65</v>
+      </c>
+      <c r="I5">
+        <v>2.62</v>
+      </c>
+      <c r="J5">
+        <v>0.4</v>
+      </c>
+      <c r="K5">
+        <v>0.3</v>
+      </c>
+      <c r="L5">
+        <v>0.09</v>
+      </c>
+      <c r="M5">
+        <v>0.05</v>
+      </c>
+      <c r="N5">
+        <v>0.04</v>
+      </c>
+      <c r="O5">
+        <v>0.01</v>
+      </c>
+      <c r="P5">
+        <v>0.02</v>
+      </c>
+      <c r="Q5">
+        <v>0.01</v>
+      </c>
+      <c r="R5">
+        <v>0.01</v>
+      </c>
+      <c r="S5">
+        <v>0.01</v>
+      </c>
+      <c r="T5">
+        <v>0.05</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>1E-3</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1">
+        <v>954</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.1378089709004048E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>29.934697582389859</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>92655248</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1520</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.275614225089735E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19.389336221363969</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>75</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>523.76855278550204</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>3.5499999999999989</v>
+      </c>
+      <c r="I9">
+        <v>1.9</v>
+      </c>
+      <c r="J9">
+        <v>0.31355433866349419</v>
+      </c>
+      <c r="K9">
+        <v>7.732841409599378E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.05</v>
+      </c>
+      <c r="M9">
+        <v>1.3899136963419609E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.084367788725713E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.4158174911161081E-3</v>
+      </c>
+      <c r="P9">
+        <v>1.1737616598549589E-2</v>
+      </c>
+      <c r="Q9">
+        <v>6.0555753669300789E-3</v>
+      </c>
+      <c r="R9">
+        <v>3.4411834736458473E-2</v>
+      </c>
+      <c r="S9">
+        <v>2.619591990223916E-2</v>
+      </c>
+      <c r="T9">
+        <v>3.9859155383712274E-3</v>
+      </c>
+      <c r="U9">
+        <v>1.5465859586046571E-3</v>
+      </c>
+      <c r="V9">
+        <v>3.1426201320470071E-3</v>
+      </c>
+      <c r="W9">
+        <v>2.7445647537408472E-3</v>
+      </c>
+      <c r="X9">
+        <v>1.5465859586046571E-3</v>
+      </c>
+      <c r="Y9">
+        <v>6.4252451181377962E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y8"/>
   <sheetViews>
@@ -1026,213 +2308,213 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>13</v>
+      <c r="A2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="D2" s="2">
-        <v>0.35173549384384961</v>
+        <v>0.65406246364151555</v>
       </c>
       <c r="E2" s="1">
-        <v>186.41981173724031</v>
+        <v>331.60966906624839</v>
       </c>
       <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.35</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>1E-3</v>
+      </c>
+      <c r="U2">
+        <v>2E-3</v>
+      </c>
+      <c r="V2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X2">
+        <v>2E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>510</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15787275020125491</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80.515102602639999</v>
+      </c>
+      <c r="H3">
         <v>3.65</v>
       </c>
-      <c r="I2">
-        <v>2.64</v>
-      </c>
-      <c r="J2">
-        <v>0.22</v>
-      </c>
-      <c r="K2">
-        <v>0.06</v>
-      </c>
-      <c r="L2">
+      <c r="I3">
+        <v>2.62</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+      <c r="M3">
         <v>0.05</v>
       </c>
-      <c r="M2">
-        <v>0.03</v>
-      </c>
-      <c r="N2">
-        <v>0.01</v>
-      </c>
-      <c r="O2">
-        <v>0.01</v>
-      </c>
-      <c r="P2">
+      <c r="N3">
+        <v>0.04</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
         <v>0.02</v>
       </c>
-      <c r="Q2">
-        <v>0.01</v>
-      </c>
-      <c r="R2">
-        <v>0.01</v>
-      </c>
-      <c r="S2">
-        <v>0.01</v>
-      </c>
-      <c r="T2">
+      <c r="Q3">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>0.01</v>
+      </c>
+      <c r="S3">
+        <v>0.01</v>
+      </c>
+      <c r="T3">
         <v>0.05</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0.01</v>
-      </c>
-      <c r="W2">
-        <v>1E-3</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="1">
-        <v>530</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.34652901231230071</v>
-      </c>
-      <c r="E3" s="1">
-        <v>183.66037652551941</v>
-      </c>
-      <c r="H3">
-        <v>4.25</v>
-      </c>
-      <c r="I3">
-        <v>0.76300000000000001</v>
-      </c>
-      <c r="J3">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="K3">
-        <v>1E-3</v>
-      </c>
-      <c r="L3">
-        <v>1.9E-2</v>
-      </c>
-      <c r="M3">
-        <v>2.7E-2</v>
-      </c>
-      <c r="N3">
-        <v>2E-3</v>
-      </c>
-      <c r="O3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="P3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="R3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="S3">
-        <v>1.4E-2</v>
-      </c>
-      <c r="T3">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="U3">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.0999999999999999E-2</v>
+        <v>0.01</v>
       </c>
       <c r="W3">
         <v>1E-3</v>
       </c>
       <c r="X3">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
-        <v>430</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1197860553804258</v>
+        <v>0.14190477942855201</v>
       </c>
       <c r="E4" s="1">
-        <v>51.50800381358308</v>
+        <v>70.952389714276023</v>
       </c>
       <c r="H4">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J4">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="L4">
-        <v>0.16</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S4">
-        <v>0.16</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1240,40 +2522,40 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
-        <v>453</v>
+        <v>954</v>
       </c>
       <c r="D5" s="2">
-        <v>0.1167609018716684</v>
+        <v>3.2157419305093457E-2</v>
       </c>
       <c r="E5" s="1">
-        <v>52.892688547865802</v>
+        <v>30.67817801705916</v>
       </c>
       <c r="H5">
-        <v>0.1</v>
+        <v>90</v>
       </c>
       <c r="I5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1285,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1310,71 +2592,71 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
+      <c r="A6" s="4">
+        <v>92655248</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>493.9</v>
+        <v>1520</v>
       </c>
       <c r="D6" s="2">
-        <v>5.6941975375398517E-2</v>
+        <v>1.4002587423583891E-2</v>
       </c>
       <c r="E6" s="1">
-        <v>28.12364163790933</v>
+        <v>21.283932883847509</v>
       </c>
       <c r="H6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="J6">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3.5000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>5.8000000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -1386,73 +2668,600 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="E8" s="1">
+        <v>535.03927228407099</v>
+      </c>
+      <c r="F8">
+        <v>0.20000000000000009</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>3.549999999999998</v>
+      </c>
+      <c r="I8">
+        <v>1.899999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.31335667926931521</v>
+      </c>
+      <c r="K8">
+        <v>7.8181171761775789E-2</v>
+      </c>
+      <c r="L8">
+        <v>4.0105213634640757E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.389112254983888E-2</v>
+      </c>
+      <c r="N8">
+        <v>1.470029677703653E-2</v>
+      </c>
+      <c r="O8">
+        <v>2.3746947450826168E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.138793221088112E-2</v>
+      </c>
+      <c r="Q8">
+        <v>7.1504982035030234E-3</v>
+      </c>
+      <c r="R8">
+        <v>3.6774172888950143E-2</v>
+      </c>
+      <c r="S8">
+        <v>7.9154835341470279E-3</v>
+      </c>
+      <c r="T8">
+        <v>8.6896047531328131E-3</v>
+      </c>
+      <c r="U8">
+        <v>1.591934486140135E-3</v>
+      </c>
+      <c r="V8">
+        <v>4.1085340106513041E-3</v>
+      </c>
+      <c r="W8">
+        <v>2.8295840382685619E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.591934486140135E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1.578727502012549E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1">
+        <v>507</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.65406246364151555</v>
+      </c>
+      <c r="E2" s="1">
+        <v>331.60966906624839</v>
+      </c>
+      <c r="H2">
+        <v>0.1</v>
+      </c>
+      <c r="I2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.35</v>
+      </c>
+      <c r="K2">
+        <v>0.02</v>
+      </c>
+      <c r="L2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="N2">
+        <v>0.01</v>
+      </c>
+      <c r="O2">
+        <v>1E-3</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R2">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="S2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="T2">
+        <v>1E-3</v>
+      </c>
+      <c r="U2">
+        <v>2E-3</v>
+      </c>
+      <c r="V2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X2">
+        <v>2E-3</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1">
+        <v>510</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.15787275020125491</v>
+      </c>
+      <c r="E3" s="1">
+        <v>80.515102602639999</v>
+      </c>
+      <c r="H3">
+        <v>3.65</v>
+      </c>
+      <c r="I3">
+        <v>2.62</v>
+      </c>
+      <c r="J3">
+        <v>0.4</v>
+      </c>
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+      <c r="M3">
+        <v>0.05</v>
+      </c>
+      <c r="N3">
+        <v>0.04</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
+        <v>0.02</v>
+      </c>
+      <c r="Q3">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>0.01</v>
+      </c>
+      <c r="S3">
+        <v>0.01</v>
+      </c>
+      <c r="T3">
+        <v>0.05</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>1E-3</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.14190477942855201</v>
+      </c>
+      <c r="E4" s="1">
+        <v>70.952389714276023</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>0.15</v>
+      </c>
+      <c r="K4">
+        <v>0.125</v>
+      </c>
+      <c r="L4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.01</v>
+      </c>
+      <c r="N4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O4">
+        <v>1E-3</v>
+      </c>
+      <c r="P4">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S4">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="T4">
+        <v>1E-3</v>
+      </c>
+      <c r="U4">
+        <v>2E-3</v>
+      </c>
+      <c r="V4">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="W4">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="X4">
+        <v>2E-3</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="C5" s="1">
+        <v>954</v>
+      </c>
+      <c r="D5" s="2">
+        <v>3.2157419305093457E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.67817801705916</v>
+      </c>
+      <c r="H5">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>92655248</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1520</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.4002587423583891E-2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>21.283932883847509</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="2">
-        <v>0.99175343878364297</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="E8" s="1">
-        <v>502.60452226211783</v>
+        <v>535.03927228407099</v>
       </c>
       <c r="F8">
-        <v>0.15213199205821129</v>
+        <v>0.20000000000000009</v>
       </c>
       <c r="G8">
-        <v>1.0200968057323829</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H8">
-        <v>3.1932043364135252</v>
+        <v>3.549999999999998</v>
       </c>
       <c r="I8">
-        <v>1.593737989528486</v>
+        <v>1.899999999999999</v>
       </c>
       <c r="J8">
-        <v>0.2055373381832665</v>
+        <v>0.31335667926931521</v>
       </c>
       <c r="K8">
-        <v>5.3693225659669927E-2</v>
+        <v>7.8181171761775789E-2</v>
       </c>
       <c r="L8">
-        <v>0.05</v>
+        <v>4.0105213634640757E-2</v>
       </c>
       <c r="M8">
-        <v>2.6436819135435309E-2</v>
+        <v>1.389112254983888E-2</v>
       </c>
       <c r="N8">
-        <v>7.2858766803766458E-3</v>
+        <v>1.470029677703653E-2</v>
       </c>
       <c r="O8">
-        <v>5.9999999999999993E-3</v>
+        <v>2.3746947450826168E-3</v>
       </c>
       <c r="P8">
-        <v>1.0683873460962411E-2</v>
+        <v>1.138793221088112E-2</v>
       </c>
       <c r="Q8">
-        <v>4.9555358030031879E-3</v>
+        <v>7.1504982035030234E-3</v>
       </c>
       <c r="R8">
-        <v>1.0109680145039801E-2</v>
+        <v>3.6774172888950143E-2</v>
       </c>
       <c r="S8">
-        <v>2.8502543553060609E-2</v>
+        <v>7.9154835341470279E-3</v>
       </c>
       <c r="T8">
-        <v>1.9029832716817081E-2</v>
+        <v>8.6896047531328131E-3</v>
       </c>
       <c r="U8">
-        <v>1.8465290123123011E-3</v>
+        <v>1.591934486140135E-3</v>
       </c>
       <c r="V8">
-        <v>7.5569419753753978E-3</v>
+        <v>4.1085340106513041E-3</v>
       </c>
       <c r="W8">
-        <v>9.8297438303314292E-4</v>
+        <v>2.8295840382685619E-3</v>
       </c>
       <c r="X8">
-        <v>1.5E-3</v>
+        <v>1.591934486140135E-3</v>
       </c>
       <c r="Y8">
-        <v>3.5173549384384961E-3</v>
+        <v>1.578727502012549E-3</v>
       </c>
     </row>
   </sheetData>

--- a/projet/Optimisation/src/data/recipes.xlsx
+++ b/projet/Optimisation/src/data/recipes.xlsx
@@ -567,10 +567,10 @@
         <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4836402465563848</v>
+        <v>0.5176505496797912</v>
       </c>
       <c r="E2" t="n">
-        <v>256.3293306748839</v>
+        <v>274.3547913302893</v>
       </c>
       <c r="H2" t="n">
         <v>4.25</v>
@@ -703,58 +703,58 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN0172</t>
+          <t>FDN1204</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frites Mn</t>
+          <t>FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1560619160881639</v>
+        <v>0.1290060250055208</v>
       </c>
       <c r="E4" t="n">
-        <v>79.12339145669912</v>
+        <v>64.5030125027604</v>
       </c>
       <c r="H4" t="n">
         <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.016</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02</v>
+        <v>0.125</v>
       </c>
       <c r="L4" t="n">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="M4" t="n">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="O4" t="n">
         <v>0.001</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="Q4" t="n">
         <v>0.007</v>
       </c>
       <c r="R4" t="n">
-        <v>0.046</v>
+        <v>0.036</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="T4" t="n">
         <v>0.001</v>
@@ -763,10 +763,10 @@
         <v>0.002</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="W4" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="X4" t="n">
         <v>0.002</v>
@@ -788,16 +788,16 @@
         <v>1520</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008059806682934238</v>
+        <v>0.002723011306354481</v>
       </c>
       <c r="E5" t="n">
-        <v>12.25090615806004</v>
+        <v>4.138977185658811</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002238030672517207</v>
+        <v>0.0006204140083333567</v>
       </c>
       <c r="E6" t="n">
-        <v>2.135081261581416</v>
+        <v>0.5918749639500223</v>
       </c>
       <c r="H6" t="n">
-        <v>90</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -930,16 +930,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E8" t="n">
-        <v>535.3387095512245</v>
+        <v>529.0886559826586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1070397518388397</v>
+        <v>0.126257256660574</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7269193938795573</v>
+        <v>1.078898600776762</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
@@ -948,49 +948,49 @@
         <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.15</v>
+        <v>0.1160216246386602</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02460487856831966</v>
+        <v>0.03764340367536989</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03168314599939256</v>
+        <v>0.03185057131910926</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02465072006963953</v>
+        <v>0.02576662509140957</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006027899653994409</v>
+        <v>0.006212379424431352</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007041543641982857</v>
+        <v>0.007252559872764059</v>
       </c>
       <c r="P8" t="n">
-        <v>0.007483640246556384</v>
+        <v>0.015</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.006043354152286302</v>
+        <v>0.005955993824078019</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01212976887972469</v>
+        <v>0.009697168549238123</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01120733494831837</v>
+        <v>0.01294021012061093</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0195906229023137</v>
+        <v>0.01969960822372468</v>
       </c>
       <c r="U8" t="n">
-        <v>0.002730325064958252</v>
+        <v>0.002846264798409998</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009288228460384722</v>
+        <v>0.009710180146499785</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001301825994820877</v>
+        <v>0.001512680674707395</v>
       </c>
       <c r="X8" t="n">
-        <v>0.002246684818401867</v>
+        <v>0.002328614248730206</v>
       </c>
       <c r="Y8" t="n">
         <v>0.0035</v>
@@ -1007,7 +1007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1157,10 +1157,10 @@
         <v>530</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3992026826500978</v>
+        <v>0.5293729111596722</v>
       </c>
       <c r="E2" t="n">
-        <v>211.5774218045518</v>
+        <v>280.5676429146263</v>
       </c>
       <c r="H2" t="n">
         <v>4.25</v>
@@ -1220,73 +1220,73 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FDN1207</t>
+          <t>FDN1204</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E8C</t>
+          <t>FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>453</v>
+        <v>500</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2505205482349204</v>
+        <v>0.249493570497247</v>
       </c>
       <c r="E3" t="n">
-        <v>113.4858083504189</v>
+        <v>124.7467852486235</v>
       </c>
       <c r="H3" t="n">
         <v>0.1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01</v>
+        <v>0.125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="M3" t="n">
         <v>0.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -1295,73 +1295,73 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN1204</t>
+          <t>FDN0184</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FRITE HAUT SILICIUM</t>
+          <t>Disque</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>500</v>
+        <v>430</v>
       </c>
       <c r="D4" t="n">
-        <v>0.212944781333619</v>
+        <v>0.1914581851094676</v>
       </c>
       <c r="E4" t="n">
-        <v>106.4723906668095</v>
+        <v>82.32701959707109</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="K4" t="n">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0.035</v>
+        <v>0.16</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="N4" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.036</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.017</v>
+        <v>0.16</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1370,73 +1370,73 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDN0184</t>
+          <t>FDN0172</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Disque</t>
+          <t>Frites Mn</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>430</v>
+        <v>507</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1046695709338049</v>
+        <v>0.01801031572024276</v>
       </c>
       <c r="E5" t="n">
-        <v>45.00791550153612</v>
+        <v>9.131230070163078</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9</v>
+        <v>0.016</v>
       </c>
       <c r="J5" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="L5" t="n">
-        <v>0.16</v>
+        <v>0.032</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04</v>
+        <v>0.007</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.046</v>
       </c>
       <c r="S5" t="n">
-        <v>0.16</v>
+        <v>0.006</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1445,25 +1445,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN1212</t>
+          <t>FDN1089</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CARBONE 98-95 2-10MM</t>
+          <t>CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>856</v>
+        <v>954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01572239796175306</v>
+        <v>0.00628187308482411</v>
       </c>
       <c r="E6" t="n">
-        <v>13.45837265526062</v>
+        <v>5.992906922922201</v>
       </c>
       <c r="H6" t="n">
-        <v>90</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>1520</v>
       </c>
       <c r="D7" t="n">
-        <v>0.009906314876531569</v>
+        <v>0.0053831444285462</v>
       </c>
       <c r="E7" t="n">
-        <v>15.05759861232798</v>
+        <v>8.182379531390223</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1590,227 +1590,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FDN1206</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SABOTS DE FREINS SNCF</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>435</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.006941284041658531</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.019458558121461</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FDN0263</t>
-        </is>
-      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cuivre</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>8900</v>
+          <t>Résultats</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>9.241996761382255e-05</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8225377117630207</v>
+        <v>510.9479642847963</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.1692495363951322</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.215204746291201</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>3.550000000000001</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>0.07036791255961394</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.02457240392070402</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.004482265395985982</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.003973114264335196</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.003460645937001445</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.01139836179451107</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.04239398296652488</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.002384995530856178</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003181872328233341</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.006875107251906111</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>0.001830871710806635</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.002652499417073669</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Résultats</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.9999999999999992</v>
-      </c>
-      <c r="E11" t="n">
-        <v>508.9015038607895</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1560351356342108</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H11" t="n">
-        <v>3.549999999999999</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.899999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.2124999999999998</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.06067019654567711</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.04249999999999998</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.02549999999999998</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.009132401210668334</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.003146189240717474</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.01275</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.002688221517285626</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.01637923662300819</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.02741369983792998</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.00180975551193401</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.002421902975917727</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.005728898517401649</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.001463926589318193</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.002022700293267629</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.0002776513616663413</v>
       </c>
     </row>
   </sheetData>
@@ -1974,10 +1824,10 @@
         <v>507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6393022823689619</v>
+        <v>0.5945786721737866</v>
       </c>
       <c r="E2" t="n">
-        <v>324.1262571610637</v>
+        <v>301.4513867921098</v>
       </c>
       <c r="H2" t="n">
         <v>0.1</v>
@@ -2049,10 +1899,10 @@
         <v>500</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1511772204194521</v>
+        <v>0.1806321232276881</v>
       </c>
       <c r="E3" t="n">
-        <v>75.58861020972603</v>
+        <v>90.31606161384406</v>
       </c>
       <c r="H3" t="n">
         <v>0.1</v>
@@ -2110,190 +1960,190 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FDN0184</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Disque</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>430</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1182529174623901</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50.84875450882775</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>12</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>Retour Jaune</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>510</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.1352142907524926</v>
-      </c>
-      <c r="E4" t="n">
-        <v>68.95928828377124</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="D5" t="n">
+        <v>0.06367657092763696</v>
+      </c>
+      <c r="E5" t="n">
+        <v>32.47505117309485</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.65</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I5" t="n">
         <v>2.62</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J5" t="n">
         <v>0.4</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K5" t="n">
         <v>0.3</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L5" t="n">
         <v>0.09</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M5" t="n">
         <v>0.05</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>0.04</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>0.01</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>0.02</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>0.01</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>0.01</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>0.01</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>0.05</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>0.01</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W5" t="n">
         <v>0.001</v>
       </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FDN1089</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CARBONE 99.05 5-10MM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>954</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03196880200483829</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30.49823711261573</v>
-      </c>
-      <c r="H5" t="n">
-        <v>90</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN0184</t>
+          <t>FDN1089</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Disque</t>
+          <t>CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>430</v>
+        <v>954</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02863648801117537</v>
+        <v>0.02942705357617255</v>
       </c>
       <c r="E6" t="n">
-        <v>12.31368984480541</v>
+        <v>28.07340911166861</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2311,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -2345,16 +2195,16 @@
         <v>1520</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01370091644307968</v>
+        <v>0.01343266263232569</v>
       </c>
       <c r="E7" t="n">
-        <v>20.82539299348112</v>
+        <v>20.41764720113504</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2412,10 +2262,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>532.3114756054632</v>
+        <v>523.5823104006802</v>
       </c>
       <c r="F9" t="n">
         <v>0.2</v>
@@ -2430,52 +2280,52 @@
         <v>1.9</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3134045177980804</v>
+        <v>0.3138817949741088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.07797478302779361</v>
+        <v>0.07722414361770585</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0425</v>
+        <v>0.05</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0138930622388489</v>
+        <v>0.01388231718237084</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0137668983192422</v>
+        <v>0.01084106716080329</v>
       </c>
       <c r="O9" t="n">
-        <v>0.00214262241031334</v>
+        <v>0.001411976504677844</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01147256459937807</v>
+        <v>0.01175019456575865</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.006885499427043824</v>
+        <v>0.006063241277086693</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03620242783159745</v>
+        <v>0.03449014106546733</v>
       </c>
       <c r="S9" t="n">
-        <v>0.01233980743065744</v>
+        <v>0.02619545063117221</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007551194040413047</v>
+        <v>0.003959039341783322</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001580959005576828</v>
+        <v>0.001550421590802949</v>
       </c>
       <c r="V9" t="n">
-        <v>0.00387475863630962</v>
+        <v>0.003143030218708482</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002809007239956639</v>
+        <v>0.002750573203587438</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001580959005576828</v>
+        <v>0.001550421590802949</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001352142907524926</v>
+        <v>0.0006367657092763696</v>
       </c>
     </row>
   </sheetData>
@@ -2639,10 +2489,10 @@
         <v>507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6540624636415158</v>
+        <v>0.6555113985809679</v>
       </c>
       <c r="E2" t="n">
-        <v>331.6096690662485</v>
+        <v>332.3442790805507</v>
       </c>
       <c r="H2" t="n">
         <v>0.1</v>
@@ -2712,10 +2562,10 @@
         <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1578727502012547</v>
+        <v>0.1572515371747162</v>
       </c>
       <c r="E3" t="n">
-        <v>80.51510260263991</v>
+        <v>80.19828395910528</v>
       </c>
       <c r="H3" t="n">
         <v>3.65</v>
@@ -2787,10 +2637,10 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1419047794285521</v>
+        <v>0.1423364823156564</v>
       </c>
       <c r="E4" t="n">
-        <v>70.95238971427604</v>
+        <v>71.16824115782819</v>
       </c>
       <c r="H4" t="n">
         <v>0.1</v>
@@ -2862,13 +2712,13 @@
         <v>954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03215741930509348</v>
+        <v>0.03015667535633719</v>
       </c>
       <c r="E5" t="n">
-        <v>30.67817801705918</v>
+        <v>28.76946828994567</v>
       </c>
       <c r="H5" t="n">
-        <v>90</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2935,16 +2785,16 @@
         <v>1520</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01400258742358389</v>
+        <v>0.01474390657232251</v>
       </c>
       <c r="E6" t="n">
-        <v>21.28393288384752</v>
+        <v>22.41073798993021</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3003,10 +2853,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>535.0392722840712</v>
+        <v>534.8910104773601</v>
       </c>
       <c r="F8" t="n">
         <v>0.2</v>
@@ -3015,58 +2865,58 @@
         <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.549999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3133566792693152</v>
+        <v>0.3136800767205737</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07818117176177575</v>
+        <v>0.07807774941349127</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04010521363464076</v>
+        <v>0.0401107799813634</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01389112254983887</v>
+        <v>0.01387452147195915</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01470029677703652</v>
+        <v>0.01469554974290186</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002374694745082616</v>
+        <v>0.002370363252643787</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01138793221088111</v>
+        <v>0.01140054671780239</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007150498203503023</v>
+        <v>0.007157450538023532</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03677417288895014</v>
+        <v>0.03685015306983531</v>
       </c>
       <c r="S8" t="n">
-        <v>0.007915483534147026</v>
+        <v>0.007925303962599129</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008689604753132806</v>
+        <v>0.008660424739632437</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001591934486140136</v>
+        <v>0.001595695761793248</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004108534010651303</v>
+        <v>0.004108395496752692</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002829584038268562</v>
+        <v>0.002835468144495902</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001591934486140136</v>
+        <v>0.001595695761793248</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001578727502012547</v>
+        <v>0.001572515371747162</v>
       </c>
     </row>
   </sheetData>
@@ -3230,10 +3080,10 @@
         <v>507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6540624636415158</v>
+        <v>0.6555113985809679</v>
       </c>
       <c r="E2" t="n">
-        <v>331.6096690662485</v>
+        <v>332.3442790805507</v>
       </c>
       <c r="F2" t="n">
         <v/>
@@ -3309,10 +3159,10 @@
         <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1578727502012547</v>
+        <v>0.1572515371747162</v>
       </c>
       <c r="E3" t="n">
-        <v>80.51510260263991</v>
+        <v>80.19828395910528</v>
       </c>
       <c r="F3" t="n">
         <v/>
@@ -3390,10 +3240,10 @@
         <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1419047794285521</v>
+        <v>0.1423364823156564</v>
       </c>
       <c r="E4" t="n">
-        <v>70.95238971427604</v>
+        <v>71.16824115782819</v>
       </c>
       <c r="F4" t="n">
         <v/>
@@ -3471,10 +3321,10 @@
         <v>954</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03215741930509348</v>
+        <v>0.03015667535633719</v>
       </c>
       <c r="E5" t="n">
-        <v>30.67817801705918</v>
+        <v>28.76946828994567</v>
       </c>
       <c r="F5" t="n">
         <v/>
@@ -3483,7 +3333,7 @@
         <v/>
       </c>
       <c r="H5" t="n">
-        <v>90</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -3550,10 +3400,10 @@
         <v>1520</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01400258742358389</v>
+        <v>0.01474390657232251</v>
       </c>
       <c r="E6" t="n">
-        <v>21.28393288384752</v>
+        <v>22.41073798993021</v>
       </c>
       <c r="F6" t="n">
         <v/>
@@ -3565,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>71.25</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -3706,10 +3556,10 @@
         <v/>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>535.0392722840712</v>
+        <v>534.8910104773601</v>
       </c>
       <c r="F8" t="n">
         <v>0.2</v>
@@ -3718,58 +3568,58 @@
         <v>1.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.549999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
         <v>1.9</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3133566792693152</v>
+        <v>0.3136800767205737</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07818117176177575</v>
+        <v>0.07807774941349127</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04010521363464076</v>
+        <v>0.0401107799813634</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01389112254983887</v>
+        <v>0.01387452147195915</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01470029677703652</v>
+        <v>0.01469554974290186</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002374694745082616</v>
+        <v>0.002370363252643787</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01138793221088111</v>
+        <v>0.01140054671780239</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.007150498203503023</v>
+        <v>0.007157450538023532</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03677417288895014</v>
+        <v>0.03685015306983531</v>
       </c>
       <c r="S8" t="n">
-        <v>0.007915483534147026</v>
+        <v>0.007925303962599129</v>
       </c>
       <c r="T8" t="n">
-        <v>0.008689604753132806</v>
+        <v>0.008660424739632437</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001591934486140136</v>
+        <v>0.001595695761793248</v>
       </c>
       <c r="V8" t="n">
-        <v>0.004108534010651303</v>
+        <v>0.004108395496752692</v>
       </c>
       <c r="W8" t="n">
-        <v>0.002829584038268562</v>
+        <v>0.002835468144495902</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001591934486140136</v>
+        <v>0.001595695761793248</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001578727502012547</v>
+        <v>0.001572515371747162</v>
       </c>
     </row>
   </sheetData>
